--- a/example_data/EMA/label_corrected/coaprovel-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/coaprovel-epar-product-information_en.xlsx
@@ -1156,7 +1156,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>renal || hepatic || contraindication</t>
+          <t>hepatic || contraindication || renal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I368" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I544" t="inlineStr"/>
@@ -26262,7 +26262,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I716" t="inlineStr"/>
